--- a/machine learning models/excel_data/Glucose_PH_60_Data_Points.xlsx
+++ b/machine learning models/excel_data/Glucose_PH_60_Data_Points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\machine learning models\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18ABBAD3-D895-436B-BA95-11E7EB2A6C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155F53FF-D06D-40AF-9291-7AAB2EDA85C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs_calulations" sheetId="2" r:id="rId1"/>
@@ -208,10 +208,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,7 +510,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1206,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S42" sqref="M42:S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4639,6 +4635,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="S2:S61">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4970,8 +4978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8678AE-4B82-4B9C-99DB-07D879871309}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
